--- a/results/mp/tinybert/corona/confidence/126/desired-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/desired-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,331 +40,322 @@
     <t>name</t>
   </si>
   <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>accused</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>stress</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>disgusting</t>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>fears</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>contest</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>$</t>
   </si>
   <si>
-    <t>home</t>
+    <t>health</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>you</t>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>the</t>
@@ -725,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,10 +724,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -797,10 +788,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -815,16 +806,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -847,10 +838,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -865,16 +856,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -894,13 +885,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -912,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -944,13 +935,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -962,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -986,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -994,13 +985,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1012,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L7">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1036,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1044,13 +1035,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.92</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1062,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1086,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1094,13 +1085,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9166666666666666</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1112,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1136,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1144,13 +1135,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9090909090909091</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1162,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.96875</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1194,37 +1185,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>9</v>
       </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1236,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1244,13 +1235,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8888888888888888</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1262,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.95</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1294,13 +1285,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8823529411764706</v>
+        <v>0.72</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1312,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.9375</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1336,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1344,37 +1335,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.875</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>7</v>
       </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.9310344827586207</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1386,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1394,13 +1385,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.875</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1412,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.9166666666666666</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1436,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1444,13 +1435,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8181818181818182</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C16">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1462,19 +1453,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.9166666666666666</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="L16">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="M16">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1486,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1494,13 +1485,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8181818181818182</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1512,31 +1503,31 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17">
+        <v>0.875</v>
+      </c>
+      <c r="L17">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <v>14</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>2</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L17">
-        <v>8</v>
-      </c>
-      <c r="M17">
-        <v>8</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1544,13 +1535,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1562,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.8888888888888888</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1586,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1594,13 +1585,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1612,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.8888888888888888</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1636,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1644,13 +1635,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7777777777777778</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1662,19 +1653,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.8823529411764706</v>
+        <v>0.85</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1686,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1694,13 +1685,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7222222222222222</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1712,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>364</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L21">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1736,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1744,13 +1735,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1762,19 +1753,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.875</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1786,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1794,13 +1785,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6875</v>
+        <v>0.2645502645502645</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1812,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.8627450980392157</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1836,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1844,13 +1835,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6875</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1862,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.8571428571428571</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L24">
         <v>48</v>
@@ -1886,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1894,13 +1885,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6666666666666666</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1912,31 +1903,31 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>132</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="L25">
+        <v>19</v>
+      </c>
+      <c r="M25">
+        <v>19</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>4</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K25">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L25">
-        <v>46</v>
-      </c>
-      <c r="M25">
-        <v>46</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1944,923 +1935,635 @@
         <v>31</v>
       </c>
       <c r="B26">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>344</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L26">
+        <v>22</v>
+      </c>
+      <c r="M26">
+        <v>22</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27">
+        <v>0.8125</v>
+      </c>
+      <c r="L27">
+        <v>104</v>
+      </c>
+      <c r="M27">
+        <v>104</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28">
+        <v>0.7936507936507936</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28">
+        <v>50</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29">
+        <v>0.78</v>
+      </c>
+      <c r="L29">
+        <v>39</v>
+      </c>
+      <c r="M29">
+        <v>39</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30">
+        <v>0.7625</v>
+      </c>
+      <c r="L30">
+        <v>122</v>
+      </c>
+      <c r="M30">
+        <v>122</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="L31">
+        <v>35</v>
+      </c>
+      <c r="M31">
+        <v>35</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L32">
+        <v>20</v>
+      </c>
+      <c r="M32">
+        <v>20</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="L33">
+        <v>22</v>
+      </c>
+      <c r="M33">
+        <v>22</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="L34">
+        <v>66</v>
+      </c>
+      <c r="M34">
+        <v>66</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L35">
+        <v>25</v>
+      </c>
+      <c r="M35">
+        <v>25</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36">
+        <v>0.6814621409921671</v>
+      </c>
+      <c r="L36">
+        <v>261</v>
+      </c>
+      <c r="M36">
+        <v>261</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38">
+        <v>0.6338983050847458</v>
+      </c>
+      <c r="L38">
+        <v>187</v>
+      </c>
+      <c r="M38">
+        <v>187</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K39">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="L39">
+        <v>22</v>
+      </c>
+      <c r="M39">
+        <v>22</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40">
         <v>0.625</v>
       </c>
-      <c r="C26">
+      <c r="L40">
         <v>15</v>
       </c>
-      <c r="D26">
+      <c r="M40">
         <v>15</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>9</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L26">
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K41">
+        <v>0.625</v>
+      </c>
+      <c r="L41">
+        <v>15</v>
+      </c>
+      <c r="M41">
+        <v>15</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K42">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="L42">
+        <v>28</v>
+      </c>
+      <c r="M42">
+        <v>28</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K43">
+        <v>0.6179775280898876</v>
+      </c>
+      <c r="L43">
+        <v>55</v>
+      </c>
+      <c r="M43">
+        <v>55</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K44">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="L44">
+        <v>17</v>
+      </c>
+      <c r="M44">
+        <v>17</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>11</v>
       </c>
-      <c r="M26">
-        <v>11</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.592274678111588</v>
-      </c>
-      <c r="C27">
-        <v>138</v>
-      </c>
-      <c r="D27">
-        <v>138</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>95</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="L27">
-        <v>49</v>
-      </c>
-      <c r="M27">
-        <v>49</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="C28">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>8</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K45">
+        <v>0.6</v>
+      </c>
+      <c r="L45">
+        <v>204</v>
+      </c>
+      <c r="M45">
+        <v>204</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K46">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="L46">
+        <v>20</v>
+      </c>
+      <c r="M46">
+        <v>20</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47">
+        <v>0.575</v>
+      </c>
+      <c r="L47">
+        <v>23</v>
+      </c>
+      <c r="M47">
+        <v>23</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K48">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="L48">
+        <v>13</v>
+      </c>
+      <c r="M48">
+        <v>13</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>10</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K28">
-        <v>0.84</v>
-      </c>
-      <c r="L28">
-        <v>21</v>
-      </c>
-      <c r="M28">
-        <v>21</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="C29">
-        <v>9</v>
-      </c>
-      <c r="D29">
-        <v>9</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>12</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K29">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L29">
-        <v>14</v>
-      </c>
-      <c r="M29">
-        <v>14</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.4186046511627907</v>
-      </c>
-      <c r="C30">
-        <v>36</v>
-      </c>
-      <c r="D30">
-        <v>36</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>50</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K30">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L30">
-        <v>14</v>
-      </c>
-      <c r="M30">
-        <v>14</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.4137931034482759</v>
-      </c>
-      <c r="C31">
-        <v>12</v>
-      </c>
-      <c r="D31">
-        <v>12</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>17</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K31">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L31">
-        <v>27</v>
-      </c>
-      <c r="M31">
-        <v>27</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.375</v>
-      </c>
-      <c r="C32">
-        <v>30</v>
-      </c>
-      <c r="D32">
-        <v>30</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>50</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K32">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L32">
-        <v>9</v>
-      </c>
-      <c r="M32">
-        <v>9</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="C33">
-        <v>17</v>
-      </c>
-      <c r="D33">
-        <v>17</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>29</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K33">
-        <v>0.8</v>
-      </c>
-      <c r="L33">
-        <v>8</v>
-      </c>
-      <c r="M33">
-        <v>8</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="C34">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <v>7</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>12</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K34">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L34">
-        <v>7</v>
-      </c>
-      <c r="M34">
-        <v>7</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C35">
-        <v>9</v>
-      </c>
-      <c r="D35">
-        <v>9</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>18</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K35">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L35">
-        <v>30</v>
-      </c>
-      <c r="M35">
-        <v>30</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.275</v>
-      </c>
-      <c r="C36">
-        <v>11</v>
-      </c>
-      <c r="D36">
-        <v>11</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>29</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K36">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L36">
-        <v>20</v>
-      </c>
-      <c r="M36">
-        <v>20</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.1842105263157895</v>
-      </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-      <c r="D37">
-        <v>7</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>31</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K37">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L37">
-        <v>10</v>
-      </c>
-      <c r="M37">
-        <v>10</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.1407407407407407</v>
-      </c>
-      <c r="C38">
-        <v>19</v>
-      </c>
-      <c r="D38">
-        <v>19</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>116</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K38">
-        <v>0.7671232876712328</v>
-      </c>
-      <c r="L38">
-        <v>56</v>
-      </c>
-      <c r="M38">
-        <v>56</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K39">
-        <v>0.76</v>
-      </c>
-      <c r="L39">
-        <v>19</v>
-      </c>
-      <c r="M39">
-        <v>19</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K40">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="L40">
-        <v>20</v>
-      </c>
-      <c r="M40">
-        <v>20</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K41">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="L41">
-        <v>14</v>
-      </c>
-      <c r="M41">
-        <v>14</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K42">
-        <v>0.72</v>
-      </c>
-      <c r="L42">
-        <v>18</v>
-      </c>
-      <c r="M42">
-        <v>18</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K43">
-        <v>0.7136150234741784</v>
-      </c>
-      <c r="L43">
-        <v>152</v>
-      </c>
-      <c r="M43">
-        <v>152</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K44">
-        <v>0.7</v>
-      </c>
-      <c r="L44">
-        <v>7</v>
-      </c>
-      <c r="M44">
-        <v>7</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K45">
-        <v>0.7</v>
-      </c>
-      <c r="L45">
-        <v>7</v>
-      </c>
-      <c r="M45">
-        <v>7</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K46">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L46">
-        <v>9</v>
-      </c>
-      <c r="M46">
-        <v>9</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K47">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L47">
-        <v>9</v>
-      </c>
-      <c r="M47">
-        <v>9</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K48">
-        <v>0.6744186046511628</v>
-      </c>
-      <c r="L48">
-        <v>87</v>
-      </c>
-      <c r="M48">
-        <v>87</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>42</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K49">
-        <v>0.6736111111111112</v>
+        <v>0.5648535564853556</v>
       </c>
       <c r="L49">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="M49">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2872,21 +2575,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>47</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K50">
-        <v>0.65</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2898,21 +2601,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K51">
-        <v>0.6486486486486487</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2924,21 +2627,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K52">
-        <v>0.6428571428571429</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L52">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2950,21 +2653,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K53">
-        <v>0.6333333333333333</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L53">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M53">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2976,21 +2679,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K54">
-        <v>0.6195652173913043</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="L54">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="M54">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3002,21 +2705,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K55">
-        <v>0.6153846153846154</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L55">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="M55">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3028,21 +2731,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K56">
-        <v>0.6071428571428571</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3054,21 +2757,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K57">
-        <v>0.5909090909090909</v>
+        <v>0.4</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3080,21 +2783,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K58">
-        <v>0.5833333333333334</v>
+        <v>0.375</v>
       </c>
       <c r="L58">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="M58">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3106,21 +2809,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K59">
-        <v>0.5833333333333334</v>
+        <v>0.35</v>
       </c>
       <c r="L59">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M59">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3132,21 +2835,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K60">
-        <v>0.5714285714285714</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3158,21 +2861,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="K61">
-        <v>0.5555555555555556</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="L61">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M61">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3184,21 +2887,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="K62">
-        <v>0.55</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L62">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M62">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3210,21 +2913,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="K63">
-        <v>0.5416666666666666</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3236,21 +2939,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>11</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K64">
-        <v>0.5</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="L64">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M64">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3262,21 +2965,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>7</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="K65">
-        <v>0.40625</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M65">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3288,21 +2991,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>19</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="K66">
-        <v>0.3421052631578947</v>
+        <v>0.04086538461538462</v>
       </c>
       <c r="L66">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M66">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3314,21 +3017,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="K67">
-        <v>0.2407407407407407</v>
+        <v>0.03588516746411483</v>
       </c>
       <c r="L67">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M67">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3340,21 +3043,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>41</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="K68">
-        <v>0.08641975308641975</v>
+        <v>0.03110047846889952</v>
       </c>
       <c r="L68">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M68">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3366,47 +3069,47 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>74</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="K69">
-        <v>0.02439024390243903</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="L69">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M69">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>400</v>
+        <v>532</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K70">
-        <v>0.01754385964912281</v>
+        <v>0.02166666666666667</v>
       </c>
       <c r="L70">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="M70">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3418,47 +3121,47 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>448</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K71">
-        <v>0.009698275862068966</v>
+        <v>0.02024291497975709</v>
       </c>
       <c r="L71">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M71">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>919</v>
+        <v>968</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="K72">
-        <v>0.00944386149003148</v>
+        <v>0.01789709172259508</v>
       </c>
       <c r="L72">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M72">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3470,85 +3173,319 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>944</v>
+        <v>878</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K73">
-        <v>0.008022922636103151</v>
+        <v>0.01499423298731257</v>
       </c>
       <c r="L73">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M73">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N73">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>1731</v>
+        <v>854</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="K74">
-        <v>0.00522466039707419</v>
+        <v>0.01105651105651106</v>
       </c>
       <c r="L74">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M74">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N74">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="O74">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>1904</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="K75">
-        <v>0.003522898842476095</v>
+        <v>0.01085329341317365</v>
       </c>
       <c r="L75">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="M75">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N75">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="O75">
-        <v>0.22</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>1980</v>
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K76">
+        <v>0.01067168863779033</v>
+      </c>
+      <c r="L76">
+        <v>17</v>
+      </c>
+      <c r="M76">
+        <v>18</v>
+      </c>
+      <c r="N76">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O76">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K77">
+        <v>0.01019935095039407</v>
+      </c>
+      <c r="L77">
+        <v>22</v>
+      </c>
+      <c r="M77">
+        <v>23</v>
+      </c>
+      <c r="N77">
+        <v>0.96</v>
+      </c>
+      <c r="O77">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K78">
+        <v>0.009114583333333334</v>
+      </c>
+      <c r="L78">
+        <v>21</v>
+      </c>
+      <c r="M78">
+        <v>26</v>
+      </c>
+      <c r="N78">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O78">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K79">
+        <v>0.008206565252201762</v>
+      </c>
+      <c r="L79">
+        <v>41</v>
+      </c>
+      <c r="M79">
+        <v>41</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K80">
+        <v>0.00715187210769878</v>
+      </c>
+      <c r="L80">
+        <v>17</v>
+      </c>
+      <c r="M80">
+        <v>19</v>
+      </c>
+      <c r="N80">
+        <v>0.89</v>
+      </c>
+      <c r="O80">
+        <v>0.11</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K81">
+        <v>0.007089912987431518</v>
+      </c>
+      <c r="L81">
+        <v>22</v>
+      </c>
+      <c r="M81">
+        <v>26</v>
+      </c>
+      <c r="N81">
+        <v>0.85</v>
+      </c>
+      <c r="O81">
+        <v>0.15</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K82">
+        <v>0.006542056074766356</v>
+      </c>
+      <c r="L82">
+        <v>14</v>
+      </c>
+      <c r="M82">
+        <v>17</v>
+      </c>
+      <c r="N82">
+        <v>0.82</v>
+      </c>
+      <c r="O82">
+        <v>0.18</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K83">
+        <v>0.006010171058714748</v>
+      </c>
+      <c r="L83">
+        <v>26</v>
+      </c>
+      <c r="M83">
+        <v>28</v>
+      </c>
+      <c r="N83">
+        <v>0.93</v>
+      </c>
+      <c r="O83">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K84">
+        <v>0.005615801704105344</v>
+      </c>
+      <c r="L84">
+        <v>29</v>
+      </c>
+      <c r="M84">
+        <v>30</v>
+      </c>
+      <c r="N84">
+        <v>0.97</v>
+      </c>
+      <c r="O84">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>5135</v>
       </c>
     </row>
   </sheetData>
